--- a/configDummy.xlsx
+++ b/configDummy.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3443D486-F34B-4254-9694-F8B7206E6AA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551ED8B-AC47-4694-8099-AAB4242EFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>appDbConStr</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>scada sem folder path</t>
+  </si>
+  <si>
+    <t>semIsgsFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\dheer\Desktop\wrldc\scada sem</t>
+  </si>
+  <si>
+    <t>scadaIsgsFolderPath</t>
   </si>
 </sst>
 </file>
@@ -428,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,6 +491,22 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/configDummy.xlsx
+++ b/configDummy.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551ED8B-AC47-4694-8099-AAB4242EFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>appDbConStr</t>
   </si>
@@ -51,13 +50,37 @@
   </si>
   <si>
     <t>scadaIsgsFolderPath</t>
+  </si>
+  <si>
+    <t>tokenUrl</t>
+  </si>
+  <si>
+    <t>http://10.2.100.56/idserver/connect/token</t>
+  </si>
+  <si>
+    <t>apiBaseUrl</t>
+  </si>
+  <si>
+    <t>http://10.2.100.56/dashboard</t>
+  </si>
+  <si>
+    <t>clientId</t>
+  </si>
+  <si>
+    <t>wrldc_electron</t>
+  </si>
+  <si>
+    <t>clientSecret</t>
+  </si>
+  <si>
+    <t>wrldc@123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +95,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +124,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -192,23 +223,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -244,23 +258,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,20 +433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B9"/>
+      <selection activeCell="A11" sqref="A11:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -465,7 +462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -473,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -481,7 +478,7 @@
         <v>8081</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -489,10 +486,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -500,7 +497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -508,10 +505,42 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="scada_warehouse/wrldc#123@10.2.100.56:15210/ORCLWR" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" display="\\10.2.100.51\scada\Reports\ANGLE" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B1" r:id="rId1" display="scada_warehouse/wrldc#123@10.2.100.56:15210/ORCLWR"/>
+    <hyperlink ref="B2" r:id="rId2" display="\\10.2.100.51\scada\Reports\ANGLE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
